--- a/MAPPING/trunk/org.openl.rules.mapping.dev/src/test/resources/org/openl/rules/mapping/CustomConvertersTest.xlsx
+++ b/MAPPING/trunk/org.openl.rules.mapping.dev/src/test/resources/org/openl/rules/mapping/CustomConvertersTest.xlsx
@@ -9,13 +9,14 @@
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="4" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="49">
   <si>
     <t>classA</t>
   </si>
@@ -140,6 +141,30 @@
   </si>
   <si>
     <t xml:space="preserve"> org.openuri.easypo.LineItem</t>
+  </si>
+  <si>
+    <t>Method boolean isNotExists(Object source, boolean dest)</t>
+  </si>
+  <si>
+    <t>return !isExists(source, dest);</t>
+  </si>
+  <si>
+    <t>Data Converter defaultConverters</t>
+  </si>
+  <si>
+    <t>convertMethod</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Class B </t>
+  </si>
+  <si>
+    <t>Object</t>
+  </si>
+  <si>
+    <t>boolean</t>
+  </si>
+  <si>
+    <t>isNotExists</t>
   </si>
 </sst>
 </file>
@@ -240,7 +265,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -267,6 +292,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -564,7 +590,7 @@
   <dimension ref="C8:I26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -827,10 +853,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="C5:C6"/>
+  <dimension ref="C5:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="F13" sqref="F13:G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -848,7 +874,80 @@
         <v>30</v>
       </c>
     </row>
+    <row r="10" spans="3:3">
+      <c r="C10" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="3:3">
+      <c r="C11" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="C4:E7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="3" max="3" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="3:5">
+      <c r="C4" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+    </row>
+    <row r="5" spans="3:5">
+      <c r="C5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="3:5">
+      <c r="C6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="3:5">
+      <c r="C7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C4:E4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>